--- a/assets/style_convert.xlsx
+++ b/assets/style_convert.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1 - Dataset style" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1 - Dataset style" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="367">
   <si>
     <t>Dataset style</t>
   </si>
@@ -1028,16 +1036,97 @@
   </si>
   <si>
     <t>Winter Warmer</t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>Simplified</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>Ale Pale</t>
+  </si>
+  <si>
+    <t>Bitter</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Pilsener</t>
+  </si>
+  <si>
+    <t>Barleywine</t>
+  </si>
+  <si>
+    <t>Stout</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Bière de Garde</t>
+  </si>
+  <si>
+    <t>Pilsner</t>
+  </si>
+  <si>
+    <t>Lambic</t>
+  </si>
+  <si>
+    <t>Ale Red</t>
+  </si>
+  <si>
+    <t>Quadrupel</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>Ale Strong</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Saison</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Ale Old</t>
+  </si>
+  <si>
+    <t>Dortmunder</t>
+  </si>
+  <si>
+    <t>Ale Dark</t>
+  </si>
+  <si>
+    <t>Malt Liquor</t>
+  </si>
+  <si>
+    <t>Gose</t>
+  </si>
+  <si>
+    <t>Sahti</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>Steam Beer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1048,16 +1137,39 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1080,53 +1192,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1325,7 +1547,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1344,7 +1566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +1622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1504,7 +1726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +1804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,9 +1817,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1614,7 +1842,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1633,7 +1861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,7 +1939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,7 +1965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +1991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1789,7 +2017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1815,7 +2043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1841,7 +2069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1867,7 +2095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1880,9 +2108,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1896,7 +2130,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1915,7 +2149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1945,7 +2179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1971,7 +2205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1997,7 +2231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2023,7 +2257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2049,7 +2283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2075,7 +2309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2101,7 +2335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2127,7 +2361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2153,7 +2387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2166,1774 +2400,2428 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B220"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="63.3203" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6719" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="27.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="C2" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="3">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="3">
+      <c r="C4" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="C5" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="3">
+      <c r="C6" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="3">
+      <c r="C7" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="3">
+      <c r="C8" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="3">
+      <c r="C9" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="3">
+      <c r="C10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="3">
+      <c r="C11" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="3">
+      <c r="C12" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="3">
+      <c r="C13" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="3">
+      <c r="C14" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="3">
+      <c r="C15" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="3">
+      <c r="C16" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="3">
+      <c r="C17" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="3">
+      <c r="C18" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="3">
+      <c r="C19" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="3">
+      <c r="C20" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="3">
+      <c r="C21" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="3">
+      <c r="C22" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="3">
+      <c r="C23" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="3">
+      <c r="C24" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="3">
+      <c r="C25" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="3">
+      <c r="C26" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="3">
+      <c r="C27" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="3">
+      <c r="C28" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="3">
+      <c r="C29" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="3">
+      <c r="C30" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="3">
+      <c r="C31" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="3">
+      <c r="C32" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="3">
+      <c r="C33" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="3">
+      <c r="C34" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="3">
+      <c r="C35" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="3">
+      <c r="C36" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="3">
+      <c r="C37" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="3">
+      <c r="C38" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="3">
+      <c r="C39" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="3">
+      <c r="C40" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="3">
+      <c r="C41" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="3">
+      <c r="C42" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="3">
+      <c r="C43" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="3">
+      <c r="C44" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="3">
+      <c r="C45" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s" s="3">
+      <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="3">
+      <c r="C46" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="3">
+      <c r="C47" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="3">
+      <c r="C48" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="3">
+      <c r="C49" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="3">
+      <c r="C50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="3">
+      <c r="C51" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="3">
+      <c r="C52" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="3">
+      <c r="C53" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="3">
+      <c r="C54" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="B55" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="3">
+      <c r="C55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="3">
+      <c r="C56" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B57" t="s" s="3">
+      <c r="B57" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="3">
+      <c r="C57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
+      <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="3">
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
+      <c r="A59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="3">
+      <c r="C59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="3">
+      <c r="C60" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="3">
+      <c r="C61" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="3">
+      <c r="C62" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="20" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="3">
+      <c r="C63" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="3">
+      <c r="C64" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20" customHeight="1">
+      <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="B65" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="3">
+      <c r="C65" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="20" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="3">
+      <c r="C66" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="3">
+      <c r="C67" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="B68" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="3">
+      <c r="C68" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B69" t="s" s="3">
+      <c r="B69" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="3">
+      <c r="C69" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="20" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="3">
+      <c r="C70" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="3">
+      <c r="C71" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="20" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="3">
+      <c r="C72" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="20" customHeight="1">
+      <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="3">
+      <c r="C73" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20" customHeight="1">
+      <c r="A74" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="3">
+      <c r="C74" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20" customHeight="1">
+      <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B75" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="3">
+      <c r="C75" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20" customHeight="1">
+      <c r="A76" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="3">
+      <c r="C76" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20" customHeight="1">
+      <c r="A77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="3">
+      <c r="C77" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20" customHeight="1">
+      <c r="A78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="3">
+      <c r="C78" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20" customHeight="1">
+      <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="3">
+      <c r="C79" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20" customHeight="1">
+      <c r="A80" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="3">
+      <c r="C80" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20" customHeight="1">
+      <c r="A81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="B81" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="3">
+      <c r="C81" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="20" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="3">
+      <c r="C82" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="20" customHeight="1">
+      <c r="A83" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="3">
+      <c r="C83" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="20" customHeight="1">
+      <c r="A84" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B84" t="s" s="3">
+      <c r="B84" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="3">
+      <c r="C84" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="20" customHeight="1">
+      <c r="A85" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="3">
+      <c r="C85" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20" customHeight="1">
+      <c r="A86" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="B86" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="3">
+      <c r="C86" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1">
+      <c r="A87" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="3">
+      <c r="C87" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20" customHeight="1">
+      <c r="A88" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="3">
+      <c r="C88" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="20" customHeight="1">
+      <c r="A89" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B89" t="s" s="3">
+      <c r="B89" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="3">
+      <c r="C89" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20" customHeight="1">
+      <c r="A90" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="3">
+      <c r="C90" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20" customHeight="1">
+      <c r="A91" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="3">
+      <c r="C91" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="20" customHeight="1">
+      <c r="A92" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="3">
+      <c r="C92" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="20" customHeight="1">
+      <c r="A93" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="3">
+      <c r="C93" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="20" customHeight="1">
+      <c r="A94" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="3">
+      <c r="C94" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="20" customHeight="1">
+      <c r="A95" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="3">
+      <c r="C95" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="20" customHeight="1">
+      <c r="A96" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B96" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="3">
+      <c r="C96" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="20" customHeight="1">
+      <c r="A97" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B97" t="s" s="3">
+      <c r="B97" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="3">
+      <c r="C97" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="20" customHeight="1">
+      <c r="A98" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="3">
+      <c r="C98" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="20" customHeight="1">
+      <c r="A99" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="3">
+      <c r="C99" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="20" customHeight="1">
+      <c r="A100" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="3">
+      <c r="C100" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="20" customHeight="1">
+      <c r="A101" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="3">
+      <c r="C101" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="20" customHeight="1">
+      <c r="A102" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="3">
+      <c r="C102" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="20" customHeight="1">
+      <c r="A103" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="3">
+      <c r="C103" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="20" customHeight="1">
+      <c r="A104" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="3">
+      <c r="C104" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="20" customHeight="1">
+      <c r="A105" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="3">
+      <c r="C105" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="20" customHeight="1">
+      <c r="A106" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="3">
+      <c r="C106" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="20" customHeight="1">
+      <c r="A107" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="3">
+      <c r="C107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="20" customHeight="1">
+      <c r="A108" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B108" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="3">
+      <c r="C108" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="20" customHeight="1">
+      <c r="A109" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="3">
+      <c r="C109" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="20" customHeight="1">
+      <c r="A110" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B110" t="s" s="3">
+      <c r="B110" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="3">
+      <c r="C110" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="20" customHeight="1">
+      <c r="A111" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="3">
+      <c r="C111" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="20" customHeight="1">
+      <c r="A112" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="3">
+      <c r="C112" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="20" customHeight="1">
+      <c r="A113" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="3">
+      <c r="C113" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="20" customHeight="1">
+      <c r="A114" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="3">
+      <c r="C114" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="20" customHeight="1">
+      <c r="A115" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="3">
+      <c r="C115" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="20" customHeight="1">
+      <c r="A116" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B116" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" t="s" s="3">
+      <c r="C116" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="20" customHeight="1">
+      <c r="A117" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" t="s" s="3">
+      <c r="C117" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="20" customHeight="1">
+      <c r="A118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="119" ht="20.05" customHeight="1">
-      <c r="A119" t="s" s="3">
+      <c r="C118" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="20" customHeight="1">
+      <c r="A119" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B119" t="s" s="3">
+      <c r="B119" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="120" ht="20.05" customHeight="1">
-      <c r="A120" t="s" s="3">
+      <c r="C119" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="20" customHeight="1">
+      <c r="A120" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B120" t="s" s="3">
+      <c r="B120" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="121" ht="20.05" customHeight="1">
-      <c r="A121" t="s" s="3">
+      <c r="C120" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="20" customHeight="1">
+      <c r="A121" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B121" t="s" s="3">
+      <c r="B121" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" t="s" s="3">
+      <c r="C121" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="20" customHeight="1">
+      <c r="A122" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" t="s" s="3">
+      <c r="C122" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="20" customHeight="1">
+      <c r="A123" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" t="s" s="3">
+      <c r="C123" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="20" customHeight="1">
+      <c r="A124" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" t="s" s="3">
+      <c r="C124" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20" customHeight="1">
+      <c r="A125" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B125" t="s" s="3">
+      <c r="B125" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" t="s" s="3">
+      <c r="C125" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="20" customHeight="1">
+      <c r="A126" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B126" t="s" s="3">
+      <c r="B126" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" t="s" s="3">
+      <c r="C126" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="20" customHeight="1">
+      <c r="A127" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" t="s" s="3">
+      <c r="C127" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="20" customHeight="1">
+      <c r="A128" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" t="s" s="3">
+      <c r="C128" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="20" customHeight="1">
+      <c r="A129" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" t="s" s="3">
+      <c r="C129" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="20" customHeight="1">
+      <c r="A130" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" t="s" s="3">
+      <c r="C130" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="20" customHeight="1">
+      <c r="A131" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B131" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" t="s" s="3">
+      <c r="C131" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="20" customHeight="1">
+      <c r="A132" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B132" t="s" s="3">
+      <c r="B132" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" t="s" s="3">
+      <c r="C132" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="20" customHeight="1">
+      <c r="A133" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" t="s" s="3">
+      <c r="C133" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="20" customHeight="1">
+      <c r="A134" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B134" t="s" s="3">
+      <c r="B134" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" t="s" s="3">
+      <c r="C134" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="20" customHeight="1">
+      <c r="A135" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" t="s" s="3">
+      <c r="C135" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20" customHeight="1">
+      <c r="A136" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" t="s" s="3">
+      <c r="C136" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="20" customHeight="1">
+      <c r="A137" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B137" t="s" s="3">
+      <c r="B137" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" t="s" s="3">
+      <c r="C137" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="20" customHeight="1">
+      <c r="A138" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" t="s" s="3">
+      <c r="C138" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="20" customHeight="1">
+      <c r="A139" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="140" ht="20.05" customHeight="1">
-      <c r="A140" t="s" s="3">
+      <c r="C139" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="20" customHeight="1">
+      <c r="A140" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B140" t="s" s="3">
+      <c r="B140" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="141" ht="20.05" customHeight="1">
-      <c r="A141" t="s" s="3">
+      <c r="C140" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="20" customHeight="1">
+      <c r="A141" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="3">
+      <c r="C141" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="20" customHeight="1">
+      <c r="A142" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="143" ht="20.05" customHeight="1">
-      <c r="A143" t="s" s="3">
+      <c r="C142" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="20" customHeight="1">
+      <c r="A143" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="144" ht="20.05" customHeight="1">
-      <c r="A144" t="s" s="3">
+      <c r="C143" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="20" customHeight="1">
+      <c r="A144" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B144" t="s" s="3">
+      <c r="B144" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="3">
+      <c r="C144" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20" customHeight="1">
+      <c r="A145" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="3">
+      <c r="C145" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="20" customHeight="1">
+      <c r="A146" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="147" ht="20.05" customHeight="1">
-      <c r="A147" t="s" s="3">
+      <c r="C146" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20" customHeight="1">
+      <c r="A147" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B147" t="s" s="3">
+      <c r="B147" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="148" ht="20.05" customHeight="1">
-      <c r="A148" t="s" s="3">
+      <c r="C147" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20" customHeight="1">
+      <c r="A148" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="149" ht="20.05" customHeight="1">
-      <c r="A149" t="s" s="3">
+      <c r="C148" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20" customHeight="1">
+      <c r="A149" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B149" t="s" s="3">
+      <c r="B149" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="150" ht="20.05" customHeight="1">
-      <c r="A150" t="s" s="3">
+      <c r="C149" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20" customHeight="1">
+      <c r="A150" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B150" t="s" s="3">
+      <c r="B150" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="151" ht="20.05" customHeight="1">
-      <c r="A151" t="s" s="3">
+      <c r="C150" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20" customHeight="1">
+      <c r="A151" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="152" ht="20.05" customHeight="1">
-      <c r="A152" t="s" s="3">
+      <c r="C151" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20" customHeight="1">
+      <c r="A152" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="3">
+      <c r="C152" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="20" customHeight="1">
+      <c r="A153" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B153" t="s" s="3">
+      <c r="B153" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="3">
+      <c r="C153" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="20" customHeight="1">
+      <c r="A154" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="155" ht="20.05" customHeight="1">
-      <c r="A155" t="s" s="3">
+      <c r="C154" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="20" customHeight="1">
+      <c r="A155" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B155" t="s" s="3">
+      <c r="B155" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="156" ht="20.05" customHeight="1">
-      <c r="A156" t="s" s="3">
+      <c r="C155" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20" customHeight="1">
+      <c r="A156" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B156" t="s" s="3">
+      <c r="B156" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="157" ht="20.05" customHeight="1">
-      <c r="A157" t="s" s="3">
+      <c r="C156" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="20" customHeight="1">
+      <c r="A157" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="158" ht="20.05" customHeight="1">
-      <c r="A158" t="s" s="3">
+      <c r="C157" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20" customHeight="1">
+      <c r="A158" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="159" ht="20.05" customHeight="1">
-      <c r="A159" t="s" s="3">
+      <c r="C158" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20" customHeight="1">
+      <c r="A159" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" ht="20.05" customHeight="1">
-      <c r="A160" t="s" s="3">
+      <c r="C159" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20" customHeight="1">
+      <c r="A160" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="161" ht="20.05" customHeight="1">
-      <c r="A161" t="s" s="3">
+      <c r="C160" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20" customHeight="1">
+      <c r="A161" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B161" t="s" s="3">
+      <c r="B161" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="162" ht="20.05" customHeight="1">
-      <c r="A162" t="s" s="3">
+      <c r="C161" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20" customHeight="1">
+      <c r="A162" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="163" ht="20.05" customHeight="1">
-      <c r="A163" t="s" s="3">
+      <c r="C162" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20" customHeight="1">
+      <c r="A163" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B163" t="s" s="3">
+      <c r="B163" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="164" ht="20.05" customHeight="1">
-      <c r="A164" t="s" s="3">
+      <c r="C163" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="20" customHeight="1">
+      <c r="A164" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B164" t="s" s="3">
+      <c r="B164" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="165" ht="20.05" customHeight="1">
-      <c r="A165" t="s" s="3">
+      <c r="C164" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="20" customHeight="1">
+      <c r="A165" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B165" t="s" s="3">
+      <c r="B165" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" ht="20.05" customHeight="1">
-      <c r="A166" t="s" s="3">
+      <c r="C165" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="20" customHeight="1">
+      <c r="A166" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="167" ht="20.05" customHeight="1">
-      <c r="A167" t="s" s="3">
+      <c r="C166" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="20" customHeight="1">
+      <c r="A167" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B167" t="s" s="3">
+      <c r="B167" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="168" ht="20.05" customHeight="1">
-      <c r="A168" t="s" s="3">
+      <c r="C167" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20" customHeight="1">
+      <c r="A168" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B168" t="s" s="3">
+      <c r="B168" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="169" ht="20.05" customHeight="1">
-      <c r="A169" t="s" s="3">
+      <c r="C168" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="20" customHeight="1">
+      <c r="A169" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="170" ht="20.05" customHeight="1">
-      <c r="A170" t="s" s="3">
+      <c r="C169" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="20" customHeight="1">
+      <c r="A170" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="171" ht="20.05" customHeight="1">
-      <c r="A171" t="s" s="3">
+      <c r="C170" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="20" customHeight="1">
+      <c r="A171" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B171" t="s" s="3">
+      <c r="B171" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="172" ht="20.05" customHeight="1">
-      <c r="A172" t="s" s="3">
+      <c r="C171" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="20" customHeight="1">
+      <c r="A172" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B172" t="s" s="3">
+      <c r="B172" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="173" ht="20.05" customHeight="1">
-      <c r="A173" t="s" s="3">
+      <c r="C172" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="20" customHeight="1">
+      <c r="A173" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" ht="20.05" customHeight="1">
-      <c r="A174" t="s" s="3">
+      <c r="C173" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="20" customHeight="1">
+      <c r="A174" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B174" t="s" s="3">
+      <c r="B174" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="175" ht="20.05" customHeight="1">
-      <c r="A175" t="s" s="3">
+      <c r="C174" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="20" customHeight="1">
+      <c r="A175" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B175" t="s" s="3">
+      <c r="B175" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="176" ht="20.05" customHeight="1">
-      <c r="A176" t="s" s="3">
+      <c r="C175" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="20" customHeight="1">
+      <c r="A176" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B176" t="s" s="3">
+      <c r="B176" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="177" ht="20.05" customHeight="1">
-      <c r="A177" t="s" s="3">
+      <c r="C176" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="20" customHeight="1">
+      <c r="A177" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="178" ht="20.05" customHeight="1">
-      <c r="A178" t="s" s="3">
+      <c r="C177" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="20" customHeight="1">
+      <c r="A178" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="179" ht="20.05" customHeight="1">
-      <c r="A179" t="s" s="3">
+      <c r="C178" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="20" customHeight="1">
+      <c r="A179" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="180" ht="20.05" customHeight="1">
-      <c r="A180" t="s" s="3">
+      <c r="C179" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="20" customHeight="1">
+      <c r="A180" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B180" t="s" s="3">
+      <c r="B180" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="181" ht="20.05" customHeight="1">
-      <c r="A181" t="s" s="3">
+      <c r="C180" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20" customHeight="1">
+      <c r="A181" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B181" t="s" s="3">
+      <c r="B181" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="182" ht="20.05" customHeight="1">
-      <c r="A182" t="s" s="3">
+      <c r="C181" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="20" customHeight="1">
+      <c r="A182" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B182" t="s" s="3">
+      <c r="B182" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="183" ht="20.05" customHeight="1">
-      <c r="A183" t="s" s="3">
+      <c r="C182" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="20" customHeight="1">
+      <c r="A183" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B183" t="s" s="3">
+      <c r="B183" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="184" ht="20.05" customHeight="1">
-      <c r="A184" t="s" s="3">
+      <c r="C183" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="185" ht="20.05" customHeight="1">
-      <c r="A185" t="s" s="3">
+      <c r="C184" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="20" customHeight="1">
+      <c r="A185" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="186" ht="20.05" customHeight="1">
-      <c r="A186" t="s" s="3">
+      <c r="C185" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="20" customHeight="1">
+      <c r="A186" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B186" t="s" s="3">
+      <c r="B186" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="187" ht="20.05" customHeight="1">
-      <c r="A187" t="s" s="3">
+      <c r="C186" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="20" customHeight="1">
+      <c r="A187" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B187" t="s" s="3">
+      <c r="B187" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="188" ht="20.05" customHeight="1">
-      <c r="A188" t="s" s="3">
+      <c r="C187" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B188" t="s" s="3">
+      <c r="B188" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="189" ht="20.05" customHeight="1">
-      <c r="A189" t="s" s="3">
+      <c r="C188" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="20" customHeight="1">
+      <c r="A189" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B189" t="s" s="3">
+      <c r="B189" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="190" ht="20.05" customHeight="1">
-      <c r="A190" t="s" s="3">
+      <c r="C189" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="20" customHeight="1">
+      <c r="A190" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B190" t="s" s="3">
+      <c r="B190" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="191" ht="20.05" customHeight="1">
-      <c r="A191" t="s" s="3">
+      <c r="C190" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="20" customHeight="1">
+      <c r="A191" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="192" ht="20.05" customHeight="1">
-      <c r="A192" t="s" s="3">
+      <c r="C191" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="20" customHeight="1">
+      <c r="A192" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="193" ht="20.05" customHeight="1">
-      <c r="A193" t="s" s="3">
+      <c r="C192" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="20" customHeight="1">
+      <c r="A193" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B193" t="s" s="3">
+      <c r="B193" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="194" ht="20.05" customHeight="1">
-      <c r="A194" t="s" s="3">
+      <c r="C193" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="20" customHeight="1">
+      <c r="A194" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="195" ht="20.05" customHeight="1">
-      <c r="A195" t="s" s="3">
+      <c r="C194" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="20" customHeight="1">
+      <c r="A195" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B195" t="s" s="3">
+      <c r="B195" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="196" ht="20.05" customHeight="1">
-      <c r="A196" t="s" s="3">
+      <c r="C195" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="20" customHeight="1">
+      <c r="A196" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B196" t="s" s="3">
+      <c r="B196" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="197" ht="20.05" customHeight="1">
-      <c r="A197" t="s" s="3">
+      <c r="C196" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="20" customHeight="1">
+      <c r="A197" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B197" t="s" s="3">
+      <c r="B197" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="198" ht="20.05" customHeight="1">
-      <c r="A198" t="s" s="3">
+      <c r="C197" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="20" customHeight="1">
+      <c r="A198" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="199" ht="20.05" customHeight="1">
-      <c r="A199" t="s" s="3">
+      <c r="C198" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="20" customHeight="1">
+      <c r="A199" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B199" t="s" s="3">
+      <c r="B199" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="200" ht="20.05" customHeight="1">
-      <c r="A200" t="s" s="3">
+      <c r="C199" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="20" customHeight="1">
+      <c r="A200" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="201" ht="20.05" customHeight="1">
-      <c r="A201" t="s" s="3">
+      <c r="C200" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="20" customHeight="1">
+      <c r="A201" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B201" t="s" s="3">
+      <c r="B201" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="202" ht="20.05" customHeight="1">
-      <c r="A202" t="s" s="3">
+      <c r="C201" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="20" customHeight="1">
+      <c r="A202" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="203" ht="20.05" customHeight="1">
-      <c r="A203" t="s" s="3">
+      <c r="C202" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="20" customHeight="1">
+      <c r="A203" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B203" t="s" s="3">
+      <c r="B203" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="204" ht="20.05" customHeight="1">
-      <c r="A204" t="s" s="3">
+      <c r="C203" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="20" customHeight="1">
+      <c r="A204" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B204" t="s" s="3">
+      <c r="B204" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="205" ht="20.05" customHeight="1">
-      <c r="A205" t="s" s="3">
+      <c r="C204" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="20" customHeight="1">
+      <c r="A205" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B205" t="s" s="3">
+      <c r="B205" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="206" ht="20.05" customHeight="1">
-      <c r="A206" t="s" s="3">
+      <c r="C205" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="20" customHeight="1">
+      <c r="A206" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B206" t="s" s="3">
+      <c r="B206" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="207" ht="20.05" customHeight="1">
-      <c r="A207" t="s" s="3">
+      <c r="C206" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="20" customHeight="1">
+      <c r="A207" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="208" ht="20.05" customHeight="1">
-      <c r="A208" t="s" s="3">
+      <c r="C207" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="20" customHeight="1">
+      <c r="A208" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B208" t="s" s="3">
+      <c r="B208" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="209" ht="20.05" customHeight="1">
-      <c r="A209" t="s" s="3">
+      <c r="C208" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="20" customHeight="1">
+      <c r="A209" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="210" ht="20.05" customHeight="1">
-      <c r="A210" t="s" s="3">
+      <c r="C209" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="20" customHeight="1">
+      <c r="A210" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B210" t="s" s="3">
+      <c r="B210" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="211" ht="20.05" customHeight="1">
-      <c r="A211" t="s" s="3">
+      <c r="C210" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="20" customHeight="1">
+      <c r="A211" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B211" t="s" s="3">
+      <c r="B211" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="212" ht="20.05" customHeight="1">
-      <c r="A212" t="s" s="3">
+      <c r="C211" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="20" customHeight="1">
+      <c r="A212" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="213" ht="20.05" customHeight="1">
-      <c r="A213" t="s" s="3">
+      <c r="C212" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="20" customHeight="1">
+      <c r="A213" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B213" t="s" s="3">
+      <c r="B213" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="214" ht="20.05" customHeight="1">
-      <c r="A214" t="s" s="3">
+      <c r="C213" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="215" ht="20.05" customHeight="1">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" ht="20.05" customHeight="1">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-    </row>
-    <row r="217" ht="20.05" customHeight="1">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" ht="20.05" customHeight="1">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-    </row>
-    <row r="219" ht="20.05" customHeight="1">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-    </row>
-    <row r="220" ht="20.05" customHeight="1">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
+      <c r="C214" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="1:3" ht="20" customHeight="1">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" ht="20" customHeight="1">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="20" customHeight="1">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="1:3" ht="20" customHeight="1">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>